--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>742.7972394727822</v>
+        <v>87.84502729450011</v>
       </c>
       <c r="R2">
-        <v>6685.175155255039</v>
+        <v>790.605245650501</v>
       </c>
       <c r="S2">
-        <v>0.003858561597474164</v>
+        <v>0.000656997975314028</v>
       </c>
       <c r="T2">
-        <v>0.003858561597474164</v>
+        <v>0.000656997975314028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>2.346012340810668</v>
+        <v>0.4044650000462223</v>
       </c>
       <c r="R3">
-        <v>21.114111067296</v>
+        <v>3.640185000416</v>
       </c>
       <c r="S3">
-        <v>1.21866811619784E-05</v>
+        <v>3.025016831344231E-06</v>
       </c>
       <c r="T3">
-        <v>1.21866811619784E-05</v>
+        <v>3.025016831344231E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>14.101273388514</v>
+        <v>3.674558551295112</v>
       </c>
       <c r="R4">
-        <v>126.911460496626</v>
+        <v>33.071026961656</v>
       </c>
       <c r="S4">
-        <v>7.325098840031196E-05</v>
+        <v>2.748223323194169E-05</v>
       </c>
       <c r="T4">
-        <v>7.325098840031196E-05</v>
+        <v>2.74822332319417E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N5">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O5">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P5">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q5">
-        <v>181151.0051512858</v>
+        <v>124261.6154054586</v>
       </c>
       <c r="R5">
-        <v>1630359.046361572</v>
+        <v>1118354.538649127</v>
       </c>
       <c r="S5">
-        <v>0.9410136100084525</v>
+        <v>0.9293597172773383</v>
       </c>
       <c r="T5">
-        <v>0.9410136100084524</v>
+        <v>0.9293597172773385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q6">
-        <v>572.1379550855823</v>
+        <v>572.1379550855822</v>
       </c>
       <c r="R6">
-        <v>5149.241595770241</v>
+        <v>5149.24159577024</v>
       </c>
       <c r="S6">
-        <v>0.002972048662320748</v>
+        <v>0.004279052436643389</v>
       </c>
       <c r="T6">
-        <v>0.002972048662320747</v>
+        <v>0.00427905243664339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N7">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q7">
-        <v>3438.97326551116</v>
+        <v>5197.864871224871</v>
       </c>
       <c r="R7">
-        <v>30950.75938960044</v>
+        <v>46780.78384102384</v>
       </c>
       <c r="S7">
-        <v>0.01786421579388208</v>
+        <v>0.03887512818343059</v>
       </c>
       <c r="T7">
-        <v>0.01786421579388208</v>
+        <v>0.0388751281834306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H8">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I8">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J8">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N8">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O8">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P8">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q8">
-        <v>6442.246675225352</v>
+        <v>3424.15357329228</v>
       </c>
       <c r="R8">
-        <v>57980.22007702816</v>
+        <v>30817.38215963052</v>
       </c>
       <c r="S8">
-        <v>0.03346512924593469</v>
+        <v>0.02560944010268605</v>
       </c>
       <c r="T8">
-        <v>0.03346512924593469</v>
+        <v>0.02560944010268606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H9">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I9">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J9">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q9">
-        <v>20.34685833425067</v>
+        <v>15.76583578871111</v>
       </c>
       <c r="R9">
-        <v>183.121725008256</v>
+        <v>141.8925220984</v>
       </c>
       <c r="S9">
-        <v>0.0001056945314625978</v>
+        <v>0.0001179135861338067</v>
       </c>
       <c r="T9">
-        <v>0.0001056945314625978</v>
+        <v>0.0001179135861338067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H10">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I10">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J10">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N10">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q10">
-        <v>122.299702766904</v>
+        <v>143.2323852721555</v>
       </c>
       <c r="R10">
-        <v>1100.697324902136</v>
+        <v>1289.0914674494</v>
       </c>
       <c r="S10">
-        <v>0.0006353024909110101</v>
+        <v>0.001071243188390434</v>
       </c>
       <c r="T10">
-        <v>0.0006353024909110101</v>
+        <v>0.001071243188390434</v>
       </c>
     </row>
   </sheetData>
